--- a/Scarran Music Data Dictionary.xlsx
+++ b/Scarran Music Data Dictionary.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\Documents\SPU\4410 Database Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\Documents\SPU\4410 Database Management\scarran-music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5310A9DB-7619-4495-A715-10611E97A5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115BB571-9D5C-46A9-8E4B-7B54A300D604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13305" yWindow="1785" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -908,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE24059C-DAA8-40C6-8168-7E1CFA294CCD}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="13">
-        <v>1138</v>
+        <v>339</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>13</v>
